--- a/src/main/resources/deploy/template/mall/item.xlsx
+++ b/src/main/resources/deploy/template/mall/item.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>IDX_NO</t>
   </si>
@@ -364,6 +364,10 @@
   </si>
   <si>
     <t>${item.dvPlaceName}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.isInclusedVat}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -948,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AI6" sqref="AI6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1258,7 +1262,9 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="Q3" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>

--- a/src/main/resources/deploy/template/mall/item.xlsx
+++ b/src/main/resources/deploy/template/mall/item.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
   <si>
     <t>IDX_NO</t>
   </si>
@@ -367,7 +367,11 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>${item.isInclusedVat}</t>
+    <t>${item.smVatKindName}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.smVatKindName == '과세' ? '1' : ''}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -952,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AM9" sqref="AM9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1260,7 +1264,9 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+      <c r="O3" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6" t="s">
         <v>96</v>
@@ -1289,7 +1295,9 @@
       <c r="AK3" s="6"/>
       <c r="AL3" s="6"/>
       <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
+      <c r="AN3" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="AO3" s="6"/>
       <c r="AP3" s="6"/>
       <c r="AQ3" s="6"/>
